--- a/app/config/tables/example_basic_delivery_form/forms/example_basic_delivery_form/example_basic_delivery_form.xlsx
+++ b/app/config/tables/example_basic_delivery_form/forms/example_basic_delivery_form/example_basic_delivery_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/basic_delivery/forms/basic_delivery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoRedCross\redcross-app-designer\app\config\tables\example_basic_delivery_form\forms\example_basic_delivery_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="13320" windowWidth="26580" windowHeight="13220" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="12540" yWindow="13320" windowWidth="26580" windowHeight="13224" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -116,9 +116,6 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>basic_delivery</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -210,12 +207,15 @@
   </si>
   <si>
     <t>skips the finalize screen where the user chooses to save as incomplete or finalized and instead saves as finalized</t>
+  </si>
+  <si>
+    <t>example_basic_delivery_form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -477,6 +477,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -751,7 +754,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="47.5" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
@@ -759,7 +762,7 @@
     <col min="6" max="6" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -806,7 +809,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:21" ht="106" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="16"/>
       <c r="C3" s="11" t="s">
@@ -835,7 +838,7 @@
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
     </row>
-    <row r="4" spans="1:21" ht="190" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="42.6" x14ac:dyDescent="0.45">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
@@ -866,7 +869,7 @@
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
     </row>
-    <row r="5" spans="1:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="22" t="s">
         <v>19</v>
       </c>
@@ -902,12 +905,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -915,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
@@ -933,13 +936,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="34.296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
@@ -950,45 +957,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="33"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="32" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="33"/>
-    </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="33"/>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="33"/>
+    </row>
+    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="32" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="33"/>
-    </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>29</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="32" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>21</v>
@@ -1005,43 +1012,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1058,11 +1065,11 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -1082,17 +1089,17 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>41</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -1101,55 +1108,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="C2" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1166,9 +1173,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1176,27 +1183,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="35" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>55</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
     </row>
-    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
       <c r="D3" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
